--- a/biology/Zoologie/Andrias/Andrias.xlsx
+++ b/biology/Zoologie/Andrias/Andrias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrias est un genre d'urodèles de la famille des Cryptobranchidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrias est un genre d'urodèles de la famille des Cryptobranchidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent au Japon et dans l'ouest de la Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent au Japon et dans l'ouest de la Chine.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (20 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (20 février 2014) :
 Andrias davidianus (Blanchard, 1871) — Salamandre géante de Chine
 Andrias japonicus (Temminck, 1836) — Salamandre géante du Japon
-et les espèces fossiles[3] :
+et les espèces fossiles :
 †Andrias bohemicus Laube, 1897
 †Andrias matthewi Cook, 1917
 †Andrias scheuchzeri (Holl, 1831)</t>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tschudi, 1837 : Über den Homo diluvii testis, Andrias Scheuchzeri. Neues Jahrbuch für Mineralogie, Geognosie, Geologie und Petrefakten-Kunde. Stuttgart, vol. 5, p. 545-547.</t>
         </is>
